--- a/T169_SHRM_Empathy_Index_2021_All_Deliverables_20210708/s1950_codebook.xlsx
+++ b/T169_SHRM_Empathy_Index_2021_All_Deliverables_20210708/s1950_codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NPPC\Common\AmeriSpeak\ClientServices\Projects\Society for Human Resource Management\T169 Empathy Index 2021\Data\Main\A4S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgebert/Sites/empathy_index/T169_SHRM_Empathy_Index_2021_All_Deliverables_20210708/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8279AE3-6F59-214B-B39D-84463D2176C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32420" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="407">
   <si>
     <t>Variable</t>
   </si>
@@ -1233,14 +1234,37 @@
   </si>
   <si>
     <t>No telephone service</t>
+  </si>
+  <si>
+    <t>Retail, Wholesale, Transport, Utilities</t>
+  </si>
+  <si>
+    <t>Financial Activities</t>
+  </si>
+  <si>
+    <t>Government &amp; Education</t>
+  </si>
+  <si>
+    <t>Healthcare &amp; Social Assistance</t>
+  </si>
+  <si>
+    <t>SHRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1268,8 +1292,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,19 +1576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D506"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="H485" sqref="H485"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>2</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>3</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>4</v>
       </c>
@@ -1613,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>5</v>
       </c>
@@ -1621,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>6</v>
       </c>
@@ -1629,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>7</v>
       </c>
@@ -1637,7 +1664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>8</v>
       </c>
@@ -1645,7 +1672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>77</v>
       </c>
@@ -1653,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>98</v>
       </c>
@@ -1661,7 +1688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>99</v>
       </c>
@@ -1669,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>1</v>
       </c>
@@ -1691,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>2</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>3</v>
       </c>
@@ -1707,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>4</v>
       </c>
@@ -1715,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>5</v>
       </c>
@@ -1723,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>6</v>
       </c>
@@ -1731,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>7</v>
       </c>
@@ -1739,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
@@ -1747,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>9</v>
       </c>
@@ -1755,7 +1782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>10</v>
       </c>
@@ -1763,7 +1790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>77</v>
       </c>
@@ -1771,7 +1798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>98</v>
       </c>
@@ -1779,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>99</v>
       </c>
@@ -1787,7 +1814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1</v>
       </c>
@@ -1809,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>2</v>
       </c>
@@ -1817,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>3</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>4</v>
       </c>
@@ -1833,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>5</v>
       </c>
@@ -1841,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>6</v>
       </c>
@@ -1849,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>7</v>
       </c>
@@ -1857,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>8</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>9</v>
       </c>
@@ -1873,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>10</v>
       </c>
@@ -1881,7 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>77</v>
       </c>
@@ -1889,7 +1916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>98</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>99</v>
       </c>
@@ -1905,7 +1932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>1</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>2</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>3</v>
       </c>
@@ -1943,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>4</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>5</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>6</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>7</v>
       </c>
@@ -1975,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>8</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>9</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>10</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>77</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>98</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>99</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>1</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>2</v>
       </c>
@@ -2053,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>3</v>
       </c>
@@ -2061,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>4</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>5</v>
       </c>
@@ -2077,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>6</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>7</v>
       </c>
@@ -2093,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>8</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>9</v>
       </c>
@@ -2109,7 +2136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>10</v>
       </c>
@@ -2117,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>77</v>
       </c>
@@ -2125,7 +2152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>98</v>
       </c>
@@ -2133,7 +2160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>99</v>
       </c>
@@ -2141,7 +2168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>1</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>2</v>
       </c>
@@ -2171,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>3</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>4</v>
       </c>
@@ -2187,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>5</v>
       </c>
@@ -2195,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75">
         <v>6</v>
       </c>
@@ -2203,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>7</v>
       </c>
@@ -2211,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>8</v>
       </c>
@@ -2219,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>9</v>
       </c>
@@ -2227,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>10</v>
       </c>
@@ -2235,7 +2262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>77</v>
       </c>
@@ -2243,7 +2270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>98</v>
       </c>
@@ -2251,7 +2278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>99</v>
       </c>
@@ -2259,7 +2286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>2</v>
       </c>
@@ -2281,7 +2308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>3</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>4</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>5</v>
       </c>
@@ -2305,7 +2332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>77</v>
       </c>
@@ -2313,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>98</v>
       </c>
@@ -2321,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>99</v>
       </c>
@@ -2329,7 +2356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>2</v>
       </c>
@@ -2351,7 +2378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>3</v>
       </c>
@@ -2359,7 +2386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>4</v>
       </c>
@@ -2367,7 +2394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>5</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>6</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>77</v>
       </c>
@@ -2399,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>98</v>
       </c>
@@ -2407,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>99</v>
       </c>
@@ -2415,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -2429,7 +2456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>2</v>
       </c>
@@ -2437,7 +2464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>3</v>
       </c>
@@ -2445,7 +2472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C104">
         <v>4</v>
       </c>
@@ -2453,7 +2480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C105">
         <v>77</v>
       </c>
@@ -2461,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>98</v>
       </c>
@@ -2469,7 +2496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>99</v>
       </c>
@@ -2477,7 +2504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -2491,7 +2518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>2</v>
       </c>
@@ -2499,7 +2526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>3</v>
       </c>
@@ -2507,7 +2534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>4</v>
       </c>
@@ -2515,7 +2542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>5</v>
       </c>
@@ -2523,7 +2550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>6</v>
       </c>
@@ -2531,7 +2558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C114">
         <v>7</v>
       </c>
@@ -2539,7 +2566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C115">
         <v>77</v>
       </c>
@@ -2547,7 +2574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C116">
         <v>98</v>
       </c>
@@ -2555,7 +2582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C117">
         <v>99</v>
       </c>
@@ -2563,7 +2590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -2577,7 +2604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>2</v>
       </c>
@@ -2585,7 +2612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>3</v>
       </c>
@@ -2593,7 +2620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>4</v>
       </c>
@@ -2601,7 +2628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C122">
         <v>5</v>
       </c>
@@ -2609,7 +2636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C123">
         <v>77</v>
       </c>
@@ -2617,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C124">
         <v>98</v>
       </c>
@@ -2625,7 +2652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C125">
         <v>99</v>
       </c>
@@ -2633,7 +2660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C127">
         <v>2</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C128">
         <v>3</v>
       </c>
@@ -2663,7 +2690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C129">
         <v>4</v>
       </c>
@@ -2671,7 +2698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C130">
         <v>5</v>
       </c>
@@ -2679,7 +2706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C131">
         <v>77</v>
       </c>
@@ -2687,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C132">
         <v>98</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C133">
         <v>99</v>
       </c>
@@ -2703,7 +2730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C135">
         <v>2</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C136">
         <v>3</v>
       </c>
@@ -2733,7 +2760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C137">
         <v>4</v>
       </c>
@@ -2741,7 +2768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C138">
         <v>5</v>
       </c>
@@ -2749,7 +2776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C139">
         <v>77</v>
       </c>
@@ -2757,7 +2784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C140">
         <v>98</v>
       </c>
@@ -2765,7 +2792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C141">
         <v>99</v>
       </c>
@@ -2773,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -2787,7 +2814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C143">
         <v>2</v>
       </c>
@@ -2795,7 +2822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C144">
         <v>3</v>
       </c>
@@ -2803,7 +2830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C145">
         <v>4</v>
       </c>
@@ -2811,7 +2838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C146">
         <v>5</v>
       </c>
@@ -2819,7 +2846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C147">
         <v>77</v>
       </c>
@@ -2827,7 +2854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C148">
         <v>98</v>
       </c>
@@ -2835,7 +2862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C149">
         <v>99</v>
       </c>
@@ -2843,7 +2870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -2857,7 +2884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C151">
         <v>2</v>
       </c>
@@ -2865,7 +2892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C152">
         <v>3</v>
       </c>
@@ -2873,7 +2900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C153">
         <v>4</v>
       </c>
@@ -2881,7 +2908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C154">
         <v>5</v>
       </c>
@@ -2889,7 +2916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C155">
         <v>77</v>
       </c>
@@ -2897,7 +2924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C156">
         <v>98</v>
       </c>
@@ -2905,7 +2932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C157">
         <v>99</v>
       </c>
@@ -2913,7 +2940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>74</v>
       </c>
@@ -2927,7 +2954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C159">
         <v>2</v>
       </c>
@@ -2935,7 +2962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C160">
         <v>3</v>
       </c>
@@ -2943,7 +2970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C161">
         <v>4</v>
       </c>
@@ -2951,7 +2978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C162">
         <v>5</v>
       </c>
@@ -2959,7 +2986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C163">
         <v>77</v>
       </c>
@@ -2967,7 +2994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C164">
         <v>98</v>
       </c>
@@ -2975,7 +3002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C165">
         <v>99</v>
       </c>
@@ -2983,7 +3010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>76</v>
       </c>
@@ -2997,7 +3024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C167">
         <v>2</v>
       </c>
@@ -3005,7 +3032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C168">
         <v>3</v>
       </c>
@@ -3013,7 +3040,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C169">
         <v>4</v>
       </c>
@@ -3021,7 +3048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C170">
         <v>5</v>
       </c>
@@ -3029,7 +3056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C171">
         <v>77</v>
       </c>
@@ -3037,7 +3064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C172">
         <v>98</v>
       </c>
@@ -3045,7 +3072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C173">
         <v>99</v>
       </c>
@@ -3053,7 +3080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>78</v>
       </c>
@@ -3067,7 +3094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C175">
         <v>2</v>
       </c>
@@ -3075,7 +3102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C176">
         <v>3</v>
       </c>
@@ -3083,7 +3110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C177">
         <v>4</v>
       </c>
@@ -3091,7 +3118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C178">
         <v>5</v>
       </c>
@@ -3099,7 +3126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C179">
         <v>77</v>
       </c>
@@ -3107,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C180">
         <v>98</v>
       </c>
@@ -3115,7 +3142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C181">
         <v>99</v>
       </c>
@@ -3123,7 +3150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>80</v>
       </c>
@@ -3137,7 +3164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C183">
         <v>2</v>
       </c>
@@ -3145,7 +3172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C184">
         <v>3</v>
       </c>
@@ -3153,7 +3180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C185">
         <v>4</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C186">
         <v>5</v>
       </c>
@@ -3169,7 +3196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C187">
         <v>77</v>
       </c>
@@ -3177,7 +3204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C188">
         <v>98</v>
       </c>
@@ -3185,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C189">
         <v>99</v>
       </c>
@@ -3193,7 +3220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>82</v>
       </c>
@@ -3207,7 +3234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C191">
         <v>2</v>
       </c>
@@ -3215,7 +3242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C192">
         <v>3</v>
       </c>
@@ -3223,7 +3250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C193">
         <v>4</v>
       </c>
@@ -3231,7 +3258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C194">
         <v>5</v>
       </c>
@@ -3239,7 +3266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C195">
         <v>77</v>
       </c>
@@ -3247,7 +3274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>98</v>
       </c>
@@ -3255,7 +3282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C197">
         <v>99</v>
       </c>
@@ -3263,7 +3290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>84</v>
       </c>
@@ -3277,7 +3304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C199">
         <v>2</v>
       </c>
@@ -3285,7 +3312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C200">
         <v>3</v>
       </c>
@@ -3293,7 +3320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C201">
         <v>4</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C202">
         <v>5</v>
       </c>
@@ -3309,7 +3336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C203">
         <v>77</v>
       </c>
@@ -3317,7 +3344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C204">
         <v>98</v>
       </c>
@@ -3325,7 +3352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C205">
         <v>99</v>
       </c>
@@ -3333,7 +3360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>86</v>
       </c>
@@ -3347,7 +3374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C207">
         <v>2</v>
       </c>
@@ -3355,7 +3382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C208">
         <v>3</v>
       </c>
@@ -3363,7 +3390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C209">
         <v>4</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C210">
         <v>5</v>
       </c>
@@ -3379,7 +3406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C211">
         <v>6</v>
       </c>
@@ -3387,7 +3414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C212">
         <v>7</v>
       </c>
@@ -3395,7 +3422,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C213">
         <v>8</v>
       </c>
@@ -3403,7 +3430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C214">
         <v>9</v>
       </c>
@@ -3411,7 +3438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C215">
         <v>10</v>
       </c>
@@ -3419,7 +3446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C216">
         <v>11</v>
       </c>
@@ -3427,7 +3454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C217">
         <v>77</v>
       </c>
@@ -3435,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C218">
         <v>98</v>
       </c>
@@ -3443,15 +3470,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C219">
         <v>99</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H219" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>99</v>
       </c>
@@ -3465,7 +3495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C221">
         <v>2</v>
       </c>
@@ -3473,7 +3503,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C222">
         <v>3</v>
       </c>
@@ -3481,23 +3511,29 @@
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C223">
         <v>4</v>
       </c>
       <c r="D223" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H223" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C224">
         <v>5</v>
       </c>
       <c r="D224" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H224" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C225">
         <v>6</v>
       </c>
@@ -3505,23 +3541,29 @@
         <v>106</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C226">
         <v>7</v>
       </c>
       <c r="D226" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H226" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C227">
         <v>8</v>
       </c>
       <c r="D227" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H227" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C228">
         <v>9</v>
       </c>
@@ -3529,15 +3571,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C229">
         <v>10</v>
       </c>
       <c r="D229" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H229" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C230">
         <v>11</v>
       </c>
@@ -3545,7 +3590,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C231">
         <v>12</v>
       </c>
@@ -3553,7 +3598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C232">
         <v>13</v>
       </c>
@@ -3561,7 +3606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C233">
         <v>14</v>
       </c>
@@ -3569,23 +3614,29 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C234">
         <v>15</v>
       </c>
       <c r="D234" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H234" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C235">
         <v>16</v>
       </c>
       <c r="D235" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="H235" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C236">
         <v>17</v>
       </c>
@@ -3593,7 +3644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C237">
         <v>18</v>
       </c>
@@ -3601,7 +3652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C238">
         <v>19</v>
       </c>
@@ -3609,7 +3660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C239">
         <v>20</v>
       </c>
@@ -3617,15 +3668,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C240">
         <v>21</v>
       </c>
       <c r="D240" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H240" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C241">
         <v>77</v>
       </c>
@@ -3633,7 +3687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C242">
         <v>98</v>
       </c>
@@ -3641,7 +3695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C243">
         <v>99</v>
       </c>
@@ -3649,7 +3703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>122</v>
       </c>
@@ -3663,7 +3717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C245">
         <v>2</v>
       </c>
@@ -3671,7 +3725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C246">
         <v>3</v>
       </c>
@@ -3679,7 +3733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C247">
         <v>4</v>
       </c>
@@ -3687,7 +3741,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C248">
         <v>5</v>
       </c>
@@ -3695,7 +3749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C249">
         <v>6</v>
       </c>
@@ -3703,7 +3757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C250">
         <v>7</v>
       </c>
@@ -3711,7 +3765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C251">
         <v>8</v>
       </c>
@@ -3719,7 +3773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C252">
         <v>9</v>
       </c>
@@ -3727,7 +3781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C253">
         <v>10</v>
       </c>
@@ -3735,7 +3789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C254">
         <v>11</v>
       </c>
@@ -3743,7 +3797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C255">
         <v>12</v>
       </c>
@@ -3751,7 +3805,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C256">
         <v>13</v>
       </c>
@@ -3759,7 +3813,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C257">
         <v>14</v>
       </c>
@@ -3767,7 +3821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C258">
         <v>15</v>
       </c>
@@ -3775,7 +3829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C259">
         <v>16</v>
       </c>
@@ -3783,7 +3837,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C260">
         <v>17</v>
       </c>
@@ -3791,7 +3845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C261">
         <v>18</v>
       </c>
@@ -3799,7 +3853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C262">
         <v>19</v>
       </c>
@@ -3807,7 +3861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>124</v>
       </c>
@@ -3821,7 +3875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C264">
         <v>2</v>
       </c>
@@ -3829,7 +3883,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C265">
         <v>3</v>
       </c>
@@ -3837,7 +3891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C266">
         <v>4</v>
       </c>
@@ -3845,7 +3899,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C267">
         <v>5</v>
       </c>
@@ -3853,7 +3907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C268">
         <v>6</v>
       </c>
@@ -3861,7 +3915,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C269">
         <v>7</v>
       </c>
@@ -3869,7 +3923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C270">
         <v>8</v>
       </c>
@@ -3877,7 +3931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C271">
         <v>9</v>
       </c>
@@ -3885,7 +3939,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C272">
         <v>10</v>
       </c>
@@ -3893,7 +3947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C273">
         <v>11</v>
       </c>
@@ -3901,7 +3955,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C274">
         <v>12</v>
       </c>
@@ -3909,7 +3963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C275">
         <v>13</v>
       </c>
@@ -3917,7 +3971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C276">
         <v>14</v>
       </c>
@@ -3925,7 +3979,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C277">
         <v>15</v>
       </c>
@@ -3933,7 +3987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C278">
         <v>16</v>
       </c>
@@ -3941,7 +3995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C279">
         <v>17</v>
       </c>
@@ -3949,7 +4003,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>18</v>
       </c>
@@ -3957,7 +4011,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>19</v>
       </c>
@@ -3965,7 +4019,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>20</v>
       </c>
@@ -3973,7 +4027,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C283">
         <v>21</v>
       </c>
@@ -3981,7 +4035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>22</v>
       </c>
@@ -3989,7 +4043,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>23</v>
       </c>
@@ -3997,7 +4051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>24</v>
       </c>
@@ -4005,7 +4059,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C287">
         <v>25</v>
       </c>
@@ -4013,7 +4067,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C288">
         <v>26</v>
       </c>
@@ -4021,7 +4075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C289">
         <v>27</v>
       </c>
@@ -4029,7 +4083,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C290">
         <v>28</v>
       </c>
@@ -4037,7 +4091,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>29</v>
       </c>
@@ -4045,7 +4099,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C292">
         <v>30</v>
       </c>
@@ -4053,7 +4107,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C293">
         <v>31</v>
       </c>
@@ -4061,7 +4115,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C294">
         <v>32</v>
       </c>
@@ -4069,7 +4123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C295">
         <v>33</v>
       </c>
@@ -4077,7 +4131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>34</v>
       </c>
@@ -4085,7 +4139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>35</v>
       </c>
@@ -4093,7 +4147,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>36</v>
       </c>
@@ -4101,7 +4155,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>37</v>
       </c>
@@ -4109,7 +4163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>38</v>
       </c>
@@ -4117,7 +4171,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>39</v>
       </c>
@@ -4125,7 +4179,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>40</v>
       </c>
@@ -4133,7 +4187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>41</v>
       </c>
@@ -4141,7 +4195,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>42</v>
       </c>
@@ -4149,7 +4203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>43</v>
       </c>
@@ -4157,7 +4211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>44</v>
       </c>
@@ -4165,7 +4219,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>45</v>
       </c>
@@ -4173,7 +4227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>46</v>
       </c>
@@ -4181,7 +4235,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>47</v>
       </c>
@@ -4189,7 +4243,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>48</v>
       </c>
@@ -4197,7 +4251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>49</v>
       </c>
@@ -4205,7 +4259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>50</v>
       </c>
@@ -4213,7 +4267,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C313">
         <v>51</v>
       </c>
@@ -4221,7 +4275,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C314">
         <v>52</v>
       </c>
@@ -4229,7 +4283,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C315">
         <v>53</v>
       </c>
@@ -4237,7 +4291,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>54</v>
       </c>
@@ -4245,7 +4299,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>55</v>
       </c>
@@ -4253,7 +4307,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C318">
         <v>56</v>
       </c>
@@ -4261,7 +4315,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C319">
         <v>77</v>
       </c>
@@ -4269,7 +4323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C320">
         <v>98</v>
       </c>
@@ -4277,7 +4331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>99</v>
       </c>
@@ -4285,7 +4339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>182</v>
       </c>
@@ -4299,7 +4353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>98</v>
       </c>
@@ -4307,7 +4361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>99</v>
       </c>
@@ -4315,7 +4369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>184</v>
       </c>
@@ -4329,7 +4383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>1</v>
       </c>
@@ -4337,7 +4391,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -4351,7 +4405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>1</v>
       </c>
@@ -4359,7 +4413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>189</v>
       </c>
@@ -4373,7 +4427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>1</v>
       </c>
@@ -4381,7 +4435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>191</v>
       </c>
@@ -4395,7 +4449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>1</v>
       </c>
@@ -4403,7 +4457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>193</v>
       </c>
@@ -4417,7 +4471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>1</v>
       </c>
@@ -4425,7 +4479,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>195</v>
       </c>
@@ -4439,7 +4493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C336">
         <v>1</v>
       </c>
@@ -4447,7 +4501,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>197</v>
       </c>
@@ -4461,7 +4515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C338">
         <v>1</v>
       </c>
@@ -4469,7 +4523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>199</v>
       </c>
@@ -4483,7 +4537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C340">
         <v>1</v>
       </c>
@@ -4491,7 +4545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>201</v>
       </c>
@@ -4505,7 +4559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C342">
         <v>1</v>
       </c>
@@ -4513,7 +4567,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>203</v>
       </c>
@@ -4527,7 +4581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C344">
         <v>1</v>
       </c>
@@ -4535,7 +4589,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>205</v>
       </c>
@@ -4549,7 +4603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C346">
         <v>1</v>
       </c>
@@ -4557,7 +4611,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -4571,7 +4625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C348">
         <v>1</v>
       </c>
@@ -4579,7 +4633,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>209</v>
       </c>
@@ -4593,7 +4647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C350">
         <v>1</v>
       </c>
@@ -4601,7 +4655,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>211</v>
       </c>
@@ -4615,7 +4669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C352">
         <v>1</v>
       </c>
@@ -4623,7 +4677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>213</v>
       </c>
@@ -4637,7 +4691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C354">
         <v>2</v>
       </c>
@@ -4645,7 +4699,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>217</v>
       </c>
@@ -4659,7 +4713,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C356">
         <v>2</v>
       </c>
@@ -4667,7 +4721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>221</v>
       </c>
@@ -4681,7 +4735,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C358">
         <v>1</v>
       </c>
@@ -4689,7 +4743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C359">
         <v>2</v>
       </c>
@@ -4697,7 +4751,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>226</v>
       </c>
@@ -4711,7 +4765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C361">
         <v>2</v>
       </c>
@@ -4719,7 +4773,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C362">
         <v>3</v>
       </c>
@@ -4727,7 +4781,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C363">
         <v>4</v>
       </c>
@@ -4735,7 +4789,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C364">
         <v>99</v>
       </c>
@@ -4743,7 +4797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>233</v>
       </c>
@@ -4757,7 +4811,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C366">
         <v>2</v>
       </c>
@@ -4765,7 +4819,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C367">
         <v>3</v>
       </c>
@@ -4773,7 +4827,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C368">
         <v>4</v>
       </c>
@@ -4781,7 +4835,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C369">
         <v>5</v>
       </c>
@@ -4789,7 +4843,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C370">
         <v>6</v>
       </c>
@@ -4797,7 +4851,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C371">
         <v>7</v>
       </c>
@@ -4805,7 +4859,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C372">
         <v>99</v>
       </c>
@@ -4813,7 +4867,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>242</v>
       </c>
@@ -4827,7 +4881,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C374">
         <v>2</v>
       </c>
@@ -4835,7 +4889,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C375">
         <v>3</v>
       </c>
@@ -4843,7 +4897,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C376">
         <v>4</v>
       </c>
@@ -4851,7 +4905,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C377">
         <v>5</v>
       </c>
@@ -4859,7 +4913,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C378">
         <v>6</v>
       </c>
@@ -4867,7 +4921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>250</v>
       </c>
@@ -4881,7 +4935,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C380">
         <v>2</v>
       </c>
@@ -4889,7 +4943,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C381">
         <v>3</v>
       </c>
@@ -4897,7 +4951,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C382">
         <v>4</v>
       </c>
@@ -4905,7 +4959,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C383">
         <v>5</v>
       </c>
@@ -4913,7 +4967,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>257</v>
       </c>
@@ -4927,7 +4981,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C385">
         <v>2</v>
       </c>
@@ -4935,7 +4989,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C386">
         <v>3</v>
       </c>
@@ -4943,7 +4997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C387">
         <v>4</v>
       </c>
@@ -4951,7 +5005,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C388">
         <v>5</v>
       </c>
@@ -4959,7 +5013,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C389">
         <v>6</v>
       </c>
@@ -4967,7 +5021,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>265</v>
       </c>
@@ -4981,7 +5035,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C391">
         <v>2</v>
       </c>
@@ -4989,7 +5043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C392">
         <v>3</v>
       </c>
@@ -4997,7 +5051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C393">
         <v>4</v>
       </c>
@@ -5005,7 +5059,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C394">
         <v>5</v>
       </c>
@@ -5013,7 +5067,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C395">
         <v>6</v>
       </c>
@@ -5021,7 +5075,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C396">
         <v>7</v>
       </c>
@@ -5029,7 +5083,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C397">
         <v>8</v>
       </c>
@@ -5037,7 +5091,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C398">
         <v>9</v>
       </c>
@@ -5045,7 +5099,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C399">
         <v>10</v>
       </c>
@@ -5053,7 +5107,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C400">
         <v>11</v>
       </c>
@@ -5061,7 +5115,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C401">
         <v>12</v>
       </c>
@@ -5069,7 +5123,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C402">
         <v>13</v>
       </c>
@@ -5077,7 +5131,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C403">
         <v>14</v>
       </c>
@@ -5085,7 +5139,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C404">
         <v>15</v>
       </c>
@@ -5093,7 +5147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C405">
         <v>16</v>
       </c>
@@ -5101,7 +5155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C406">
         <v>17</v>
       </c>
@@ -5109,7 +5163,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C407">
         <v>18</v>
       </c>
@@ -5117,7 +5171,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>285</v>
       </c>
@@ -5131,7 +5185,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C409">
         <v>2</v>
       </c>
@@ -5139,7 +5193,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C410">
         <v>3</v>
       </c>
@@ -5147,7 +5201,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C411">
         <v>4</v>
       </c>
@@ -5155,7 +5209,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>291</v>
       </c>
@@ -5169,7 +5223,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C413">
         <v>2</v>
       </c>
@@ -5177,7 +5231,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C414">
         <v>3</v>
       </c>
@@ -5185,7 +5239,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C415">
         <v>4</v>
       </c>
@@ -5193,7 +5247,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C416">
         <v>5</v>
       </c>
@@ -5201,7 +5255,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C417">
         <v>6</v>
       </c>
@@ -5209,7 +5263,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C418">
         <v>7</v>
       </c>
@@ -5217,7 +5271,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C419">
         <v>8</v>
       </c>
@@ -5225,7 +5279,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C420">
         <v>9</v>
       </c>
@@ -5233,7 +5287,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>302</v>
       </c>
@@ -5247,7 +5301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C422">
         <v>99</v>
       </c>
@@ -5255,7 +5309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C423" t="s">
         <v>304</v>
       </c>
@@ -5263,7 +5317,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C424" t="s">
         <v>305</v>
       </c>
@@ -5271,7 +5325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C425" t="s">
         <v>306</v>
       </c>
@@ -5279,7 +5333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C426" t="s">
         <v>307</v>
       </c>
@@ -5287,7 +5341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C427" t="s">
         <v>308</v>
       </c>
@@ -5295,7 +5349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C428" t="s">
         <v>309</v>
       </c>
@@ -5303,7 +5357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C429" t="s">
         <v>310</v>
       </c>
@@ -5311,7 +5365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C430" t="s">
         <v>311</v>
       </c>
@@ -5319,7 +5373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C431" t="s">
         <v>312</v>
       </c>
@@ -5327,7 +5381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C432" t="s">
         <v>313</v>
       </c>
@@ -5335,7 +5389,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="433" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C433" t="s">
         <v>314</v>
       </c>
@@ -5343,7 +5397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C434" t="s">
         <v>315</v>
       </c>
@@ -5351,7 +5405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C435" t="s">
         <v>316</v>
       </c>
@@ -5359,7 +5413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C436" t="s">
         <v>317</v>
       </c>
@@ -5367,7 +5421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C437" t="s">
         <v>318</v>
       </c>
@@ -5375,7 +5429,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C438" t="s">
         <v>319</v>
       </c>
@@ -5383,7 +5437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="439" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C439" t="s">
         <v>320</v>
       </c>
@@ -5391,7 +5445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="440" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C440" t="s">
         <v>321</v>
       </c>
@@ -5399,7 +5453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="441" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
         <v>322</v>
       </c>
@@ -5407,7 +5461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="442" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C442" t="s">
         <v>323</v>
       </c>
@@ -5415,7 +5469,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="443" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C443" t="s">
         <v>324</v>
       </c>
@@ -5423,7 +5477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="444" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C444" t="s">
         <v>325</v>
       </c>
@@ -5431,7 +5485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="445" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C445" t="s">
         <v>326</v>
       </c>
@@ -5439,7 +5493,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="446" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C446" t="s">
         <v>327</v>
       </c>
@@ -5447,7 +5501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="447" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C447" t="s">
         <v>328</v>
       </c>
@@ -5455,7 +5509,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="448" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C448" t="s">
         <v>329</v>
       </c>
@@ -5463,7 +5517,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="449" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C449" t="s">
         <v>330</v>
       </c>
@@ -5471,7 +5525,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="450" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C450" t="s">
         <v>331</v>
       </c>
@@ -5479,7 +5533,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="451" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C451" t="s">
         <v>332</v>
       </c>
@@ -5487,7 +5541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="452" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C452" t="s">
         <v>333</v>
       </c>
@@ -5495,7 +5549,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="453" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C453" t="s">
         <v>334</v>
       </c>
@@ -5503,7 +5557,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="454" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C454" t="s">
         <v>335</v>
       </c>
@@ -5511,7 +5565,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="455" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C455" t="s">
         <v>336</v>
       </c>
@@ -5519,7 +5573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="456" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C456" t="s">
         <v>337</v>
       </c>
@@ -5527,7 +5581,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C457" t="s">
         <v>338</v>
       </c>
@@ -5535,7 +5589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="458" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C458" t="s">
         <v>339</v>
       </c>
@@ -5543,7 +5597,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="459" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C459" t="s">
         <v>340</v>
       </c>
@@ -5551,7 +5605,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C460" t="s">
         <v>341</v>
       </c>
@@ -5559,7 +5613,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="461" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C461" t="s">
         <v>342</v>
       </c>
@@ -5567,7 +5621,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="462" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C462" t="s">
         <v>343</v>
       </c>
@@ -5575,7 +5629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="463" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C463" t="s">
         <v>344</v>
       </c>
@@ -5583,7 +5637,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="464" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C464" t="s">
         <v>345</v>
       </c>
@@ -5591,7 +5645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C465" t="s">
         <v>346</v>
       </c>
@@ -5599,7 +5653,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C466" t="s">
         <v>347</v>
       </c>
@@ -5607,7 +5661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C467" t="s">
         <v>348</v>
       </c>
@@ -5615,7 +5669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C468" t="s">
         <v>349</v>
       </c>
@@ -5623,7 +5677,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C469" t="s">
         <v>350</v>
       </c>
@@ -5631,7 +5685,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C470" t="s">
         <v>351</v>
       </c>
@@ -5639,7 +5693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C471" t="s">
         <v>352</v>
       </c>
@@ -5647,7 +5701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C472" t="s">
         <v>353</v>
       </c>
@@ -5655,7 +5709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C473" t="s">
         <v>354</v>
       </c>
@@ -5663,7 +5717,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C474" t="s">
         <v>355</v>
       </c>
@@ -5671,7 +5725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C475" t="s">
         <v>356</v>
       </c>
@@ -5679,7 +5733,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>357</v>
       </c>
@@ -5693,7 +5747,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C477">
         <v>2</v>
       </c>
@@ -5701,7 +5755,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C478">
         <v>3</v>
       </c>
@@ -5709,7 +5763,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C479">
         <v>4</v>
       </c>
@@ -5717,7 +5771,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>363</v>
       </c>
@@ -5731,7 +5785,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C481">
         <v>2</v>
       </c>
@@ -5739,7 +5793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C482">
         <v>3</v>
       </c>
@@ -5747,7 +5801,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C483">
         <v>4</v>
       </c>
@@ -5755,7 +5809,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C484">
         <v>5</v>
       </c>
@@ -5763,7 +5817,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C485">
         <v>6</v>
       </c>
@@ -5771,7 +5825,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C486">
         <v>7</v>
       </c>
@@ -5779,7 +5833,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C487">
         <v>8</v>
       </c>
@@ -5787,7 +5841,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C488">
         <v>9</v>
       </c>
@@ -5795,7 +5849,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C489">
         <v>10</v>
       </c>
@@ -5803,7 +5857,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>375</v>
       </c>
@@ -5817,7 +5871,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C491">
         <v>1</v>
       </c>
@@ -5825,7 +5879,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>379</v>
       </c>
@@ -5839,7 +5893,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C493">
         <v>1</v>
       </c>
@@ -5847,7 +5901,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>383</v>
       </c>
@@ -5861,7 +5915,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C495">
         <v>2</v>
       </c>
@@ -5869,7 +5923,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C496">
         <v>3</v>
       </c>
@@ -5877,7 +5931,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>388</v>
       </c>
@@ -5891,7 +5945,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C498">
         <v>2</v>
       </c>
@@ -5899,7 +5953,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C499">
         <v>3</v>
       </c>
@@ -5907,7 +5961,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C500">
         <v>4</v>
       </c>
@@ -5915,7 +5969,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C501">
         <v>5</v>
       </c>
@@ -5923,7 +5977,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>395</v>
       </c>
@@ -5937,7 +5991,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C503">
         <v>2</v>
       </c>
@@ -5945,7 +5999,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C504">
         <v>3</v>
       </c>
@@ -5953,7 +6007,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C505">
         <v>4</v>
       </c>
@@ -5961,7 +6015,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C506">
         <v>5</v>
       </c>
